--- a/UI_ATUO/data_file/login.xlsx
+++ b/UI_ATUO/data_file/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,31 +34,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名或密码错误,您还可以尝试5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名或密码错误,您还可以尝试4次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15101033210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1124125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>63214533</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您输入手机/邮箱/用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码有误，请重新输入或找回密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,7 +406,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" activeCellId="1" sqref="C4 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,35 +428,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
